--- a/downloads/FEDERAL-GOVT-INCENTIVES(1).xlsx
+++ b/downloads/FEDERAL-GOVT-INCENTIVES(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDSG\Downloads\DLI 4 SABER ESIPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Awwal\Desktop\oysipa\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F8B5E9-113A-AA43-9D17-7EAAC670AAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088DC135-40FF-47AD-89E1-7EBC0D6B8977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,106 +577,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>470099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="349250"/>
-          <a:ext cx="1397000" cy="835224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>730250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15795625" y="63501"/>
-          <a:ext cx="1428750" cy="1381124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -945,24 +845,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.93359375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.34765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.80859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.0625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.1171875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.80859375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.87890625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>98</v>
       </c>
@@ -975,7 +875,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -986,7 +886,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -997,7 +897,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1008,7 +908,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -1048,7 +948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="81.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -1077,7 +977,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -1106,7 +1006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="163.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -1135,7 +1035,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="130.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -1164,7 +1064,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="276.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>5</v>
       </c>
@@ -1193,7 +1093,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -1222,7 +1122,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="179.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -1251,7 +1151,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="66.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>8</v>
       </c>
@@ -1280,7 +1180,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="66.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -1309,7 +1209,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -1338,7 +1238,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="11" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>11</v>
       </c>
@@ -1367,7 +1267,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>12</v>
       </c>
@@ -1396,7 +1296,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" ht="179.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="11" customFormat="1" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>13</v>
       </c>
@@ -1425,7 +1325,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="342" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>14</v>
       </c>
@@ -1454,7 +1354,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>15</v>
       </c>
